--- a/anki_decks/kawsay_vida/chapter_11.xlsx
+++ b/anki_decks/kawsay_vida/chapter_11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\quechua\anki_decks\kawsay_vida\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\Language\quechua\anki_decks\kawsay_vida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B24DF-8520-4B64-8849-5BBD9A91107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0492DD83-A01F-40EE-83E2-3ACD078FDE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Maypitaq aymarata parlanku?</t>
   </si>
@@ -55,6 +55,138 @@
   </si>
   <si>
     <t>The ones who spoke [it] have already died out.</t>
+  </si>
+  <si>
+    <t>Allquyta chinkachisqani!</t>
+  </si>
+  <si>
+    <t>I lost my dog!</t>
+  </si>
+  <si>
+    <t>Pitaq pay? Qunqasqani!</t>
+  </si>
+  <si>
+    <t>Who's she? I forgot!</t>
+  </si>
+  <si>
+    <t>Imataq mama simiyki?</t>
+  </si>
+  <si>
+    <t>What is your mother language?</t>
+  </si>
+  <si>
+    <t>Abuelaypa mama siminta wañupusqan.</t>
+  </si>
+  <si>
+    <t>My grandma's mother language died out.</t>
+  </si>
+  <si>
+    <t>Wawqiy ancha jatun.</t>
+  </si>
+  <si>
+    <t>My brother is very big.</t>
+  </si>
+  <si>
+    <t>Runasimita pisita parlani.</t>
+  </si>
+  <si>
+    <t>I speak a little Quechua.</t>
+  </si>
+  <si>
+    <t>Wallpatachuchikachinki?</t>
+  </si>
+  <si>
+    <t>Did you lose your chicken?</t>
+  </si>
+  <si>
+    <t>Aychata mikhuyku qhipata.</t>
+  </si>
+  <si>
+    <t>We (exclusive) eat meat later.</t>
+  </si>
+  <si>
+    <t>Panay españolta parlan.</t>
+  </si>
+  <si>
+    <t>My sister speaks Spanish.</t>
+  </si>
+  <si>
+    <t>Imaynatataq parlan?</t>
+  </si>
+  <si>
+    <t>How does she speak it?</t>
+  </si>
+  <si>
+    <t>Allinta parlan.</t>
+  </si>
+  <si>
+    <t>She speak it well.</t>
+  </si>
+  <si>
+    <t>Ñachu rinki?</t>
+  </si>
+  <si>
+    <t>Are you going already?</t>
+  </si>
+  <si>
+    <t>Inglesta parlaña.</t>
+  </si>
+  <si>
+    <t>They already speak English.</t>
+  </si>
+  <si>
+    <t>Wasiyki sumaqña.</t>
+  </si>
+  <si>
+    <t>Your house is already beautiful.</t>
+  </si>
+  <si>
+    <t>Panay sipasña.</t>
+  </si>
+  <si>
+    <t>My sister is already a young woman.</t>
+  </si>
+  <si>
+    <t>Puñuchkanraq.</t>
+  </si>
+  <si>
+    <t>She is still sleeping.</t>
+  </si>
+  <si>
+    <t>Tatasniykirí kawsankuraqchu?</t>
+  </si>
+  <si>
+    <t>Are your parents still alive?</t>
+  </si>
+  <si>
+    <t>Fiestata ruwachkankuña.</t>
+  </si>
+  <si>
+    <t>They are already celebrating the fiesta.</t>
+  </si>
+  <si>
+    <t>Fiestata ruwachkankuraq.</t>
+  </si>
+  <si>
+    <t>They are still celebrating the fiesta.</t>
+  </si>
+  <si>
+    <t>Manaraq yachanichu.</t>
+  </si>
+  <si>
+    <t>I don't know yet.</t>
+  </si>
+  <si>
+    <t>Aymarata manaña parlankuchu.</t>
+  </si>
+  <si>
+    <t>They do not speak Aymara anymore.</t>
+  </si>
+  <si>
+    <t>Wawaykukuna aymarata manaraq parlankuchu.</t>
+  </si>
+  <si>
+    <t>Our (exclusive) children do not speak Aymara yet.</t>
   </si>
 </sst>
 </file>
@@ -372,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +552,182 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
